--- a/biology/Zoologie/Calamaria_lovii/Calamaria_lovii.xlsx
+++ b/biology/Zoologie/Calamaria_lovii/Calamaria_lovii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calamaria lovii  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calamaria lovii  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre à Java et au Kalimantan en Indonésie, en Malaisie et au Viêt Nam[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre à Java et au Kalimantan en Indonésie, en Malaisie et au Viêt Nam.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Boulenger indique que le spécimen en sa possession mesure 265 mm. Son dos est grisâtre et présente des lignes formées de petites taches.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Boulenger indique que le spécimen en sa possession mesure 265 mm. Son dos est grisâtre et présente des lignes formées de petites taches.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Calamaria lovii gimletti Boulenger, 1905
 Calamaria lovii ingermarxorum Darevsky &amp; Orlov, 1992
 Calamaria lovii lovii Boulenger, 1887
@@ -607,9 +625,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, lovii, lui a été donné en l'honneur de Hugh Brooke Low qui a fourni le spécimen étudié au Natural History Museum de Londres[4]. La sous-espèce Calamaria lovii ingermarxorum est nommée en l'honneur de Robert Frederick Inger et de Hymen Marx[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, lovii, lui a été donné en l'honneur de Hugh Brooke Low qui a fourni le spécimen étudié au Natural History Museum de Londres. La sous-espèce Calamaria lovii ingermarxorum est nommée en l'honneur de Robert Frederick Inger et de Hymen Marx.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Boulenger, 1887 : Description of a new snake, of the genus Calamaria, from Borneo. Annals and Magazine of Natural History, sér. 5, vol. 19, p. 169-170 (texte intégral).
 Boulenger, 1905 : Descriptions of new snakes in the collection of the British Museum. Annals and Magazine of Natural History, sér. 7, vol. 15, p. 453-456 (texte intégral).
